--- a/Themepark_Followers.xlsx
+++ b/Themepark_Followers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cansenturk/Desktop/School/Master/Phase 6/Digital Marketing Strategy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amsterdam\MDDB\Digital Marketing Strategy\repository_NEW\Group1_MarketingStrategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13428732-1185-794E-8F32-0DA49BC78B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D4A73-85BD-4269-A29D-7EB30FB37187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="860" windowWidth="17100" windowHeight="20400" xr2:uid="{B088D86B-003D-5C41-9D93-2275755CA435}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B088D86B-003D-5C41-9D93-2275755CA435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Profile</t>
   </si>
@@ -210,13 +210,22 @@
   </si>
   <si>
     <t>Followers</t>
+  </si>
+  <si>
+    <t>disneyland paris</t>
+  </si>
+  <si>
+    <t>west edmonton mall</t>
+  </si>
+  <si>
+    <t>canada's wonderland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -596,18 +605,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7372DE3-FCC8-6043-B0DB-1AB1C1AFBECF}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,7 +640,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -639,7 +648,7 @@
         <v>381000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,7 +656,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -655,7 +664,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -663,7 +672,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -671,7 +680,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -679,7 +688,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -687,7 +696,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -695,7 +704,7 @@
         <v>692000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -703,7 +712,7 @@
         <v>854000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -711,7 +720,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -719,7 +728,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +736,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -735,7 +744,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -743,7 +752,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -751,7 +760,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -759,7 +768,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -767,7 +776,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -775,7 +784,7 @@
         <v>692000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -783,7 +792,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -791,7 +800,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -799,7 +808,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -807,7 +816,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -815,7 +824,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -823,7 +832,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -831,7 +840,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -839,7 +848,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -847,7 +856,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -855,7 +864,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -863,7 +872,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -871,7 +880,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -879,7 +888,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -887,7 +896,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -895,7 +904,7 @@
         <v>733000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -903,7 +912,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -911,7 +920,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -919,7 +928,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -927,7 +936,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -935,7 +944,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -943,7 +952,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -951,7 +960,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -959,7 +968,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -967,7 +976,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -975,7 +984,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -983,7 +992,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>479000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>637000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1055,13 +1064,58 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="2">
         <v>29000</v>
       </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Themepark_Followers.xlsx
+++ b/Themepark_Followers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amsterdam\MDDB\Digital Marketing Strategy\repository_NEW\Group1_MarketingStrategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D4A73-85BD-4269-A29D-7EB30FB37187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C375A2B-AAE1-47B3-86F0-82D1D5852255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B088D86B-003D-5C41-9D93-2275755CA435}"/>
+    <workbookView xWindow="1320" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{B088D86B-003D-5C41-9D93-2275755CA435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7372DE3-FCC8-6043-B0DB-1AB1C1AFBECF}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1076,15 +1076,24 @@
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B58" s="2">
+        <v>5200000</v>
+      </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B59" s="2">
+        <v>189464</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <v>837016</v>
       </c>
     </row>
     <row r="61" spans="1:2">

--- a/Themepark_Followers.xlsx
+++ b/Themepark_Followers.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amsterdam\MDDB\Digital Marketing Strategy\repository_NEW\Group1_MarketingStrategy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\Master\teamAverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C375A2B-AAE1-47B3-86F0-82D1D5852255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB2575F-730F-4954-A7B5-445D1CD2DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{B088D86B-003D-5C41-9D93-2275755CA435}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4C1FCB7-FFBE-4788-9772-C6EB228256FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,6 +41,9 @@
     <t>Profile</t>
   </si>
   <si>
+    <t>Followers</t>
+  </si>
+  <si>
     <t>Wild Adventures Theme Park</t>
   </si>
   <si>
@@ -182,9 +185,15 @@
     <t>Six Flags</t>
   </si>
   <si>
+    <t>Big Kahuna's NJ</t>
+  </si>
+  <si>
     <t>SkyPark at Santa's Village</t>
   </si>
   <si>
+    <t>Six Flags Over Georgia &amp; Hurricane Harbor</t>
+  </si>
+  <si>
     <t>Playland</t>
   </si>
   <si>
@@ -201,15 +210,6 @@
   </si>
   <si>
     <t>Sesame Place San Diego</t>
-  </si>
-  <si>
-    <t>Big Kahuna's NJ</t>
-  </si>
-  <si>
-    <t>Six Flags Over Georgia &amp; Hurricane Harbor</t>
-  </si>
-  <si>
-    <t>Followers</t>
   </si>
   <si>
     <t>disneyland paris</t>
@@ -227,20 +227,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -269,8 +269,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,39 +299,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -383,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -494,6 +494,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -502,13 +509,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -573,47 +573,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7372DE3-FCC8-6043-B0DB-1AB1C1AFBECF}">
-  <dimension ref="A1:B70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504261C1-D973-4AE2-A147-5FED263CA1AD}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -621,20 +602,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>100000</v>
@@ -642,7 +623,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>381000</v>
@@ -650,7 +631,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>51000</v>
@@ -658,7 +639,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>267000</v>
@@ -666,7 +647,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>127000</v>
@@ -674,7 +655,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>166000</v>
@@ -682,7 +663,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>39000</v>
@@ -690,7 +671,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>3100000</v>
@@ -698,7 +679,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>692000</v>
@@ -706,7 +687,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>854000</v>
@@ -714,7 +695,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>83000</v>
@@ -722,7 +703,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>26000</v>
@@ -730,7 +711,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>650000</v>
@@ -738,7 +719,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>145000</v>
@@ -746,7 +727,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>1100000</v>
@@ -754,7 +735,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>55000</v>
@@ -762,7 +743,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>690000</v>
@@ -770,7 +751,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>400000</v>
@@ -778,7 +759,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>692000</v>
@@ -786,7 +767,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>1700000</v>
@@ -794,7 +775,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>275000</v>
@@ -802,7 +783,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>15000</v>
@@ -810,7 +791,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>39000</v>
@@ -818,7 +799,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>2300</v>
@@ -826,7 +807,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>29000</v>
@@ -834,7 +815,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>123000</v>
@@ -842,7 +823,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>2700000</v>
@@ -850,7 +831,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>47000</v>
@@ -858,7 +839,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>48000</v>
@@ -866,7 +847,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>17000</v>
@@ -874,7 +855,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>46000</v>
@@ -882,7 +863,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>43000</v>
@@ -890,7 +871,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>226000</v>
@@ -898,7 +879,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>733000</v>
@@ -906,7 +887,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>16000000</v>
@@ -914,7 +895,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>22000</v>
@@ -922,7 +903,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>16000000</v>
@@ -930,7 +911,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>35000</v>
@@ -938,7 +919,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>4000</v>
@@ -946,7 +927,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>2300</v>
@@ -954,7 +935,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>16000000</v>
@@ -962,7 +943,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>84000</v>
@@ -970,7 +951,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>660000</v>
@@ -978,7 +959,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>93000</v>
@@ -986,7 +967,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
         <v>262000</v>
@@ -994,7 +975,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>4400000</v>
@@ -1002,7 +983,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>181000</v>
@@ -1010,7 +991,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>57000</v>
@@ -1018,7 +999,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>479000</v>
@@ -1026,7 +1007,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>23000</v>
@@ -1034,7 +1015,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>58000</v>
@@ -1042,7 +1023,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
         <v>1500000</v>
@@ -1050,7 +1031,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>637000</v>
@@ -1058,7 +1039,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
         <v>12000000</v>
@@ -1066,7 +1047,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>29000</v>
@@ -1093,38 +1074,8 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>837016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1"/>
+        <v>837089</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
